--- a/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009455</t>
+          <t>009768</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合C</t>
+          <t>创金合信汇悦一年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009768</t>
+          <t>009481</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
+          <t>国泰宏益一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009769</t>
+          <t>009482</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
+          <t>国泰宏益一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009481</t>
+          <t>009455</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰宏益一年持有期混合A</t>
+          <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +690,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009482</t>
+          <t>009769</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰宏益一年持有期混合C</t>
+          <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +752,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +782,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004790</t>
+          <t>009768</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强A</t>
+          <t>创金合信汇悦一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -734,25 +820,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004791</t>
+          <t>004790</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强C</t>
+          <t>富荣中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.32</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.64</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -762,26 +858,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009768</t>
+          <t>004791</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
+          <t>富荣中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -798,17 +904,21 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.69</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -904,7 +905,6 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>33.50</t>
@@ -920,6 +920,100 @@
       </c>
       <c r="H5" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1019,4 +1020,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
@@ -1044,12 +1044,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1028,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,17 +1040,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1059,14 +1080,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1075,14 +1118,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1091,13 +1156,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1237,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1248,17 +1249,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1268,14 +1289,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -1284,14 +1379,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1300,11 +1395,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.02</v>
@@ -1316,13 +1411,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,281 +455,211 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009454</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5227</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009768</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2092</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009481</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰宏益一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0524</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009482</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰宏益一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009455</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009769</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+      <c r="D6" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -756,7 +686,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -786,36 +716,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009768</t>
+          <t>005104</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
+          <t>富荣福康混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -824,36 +754,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004790</t>
+          <t>005105</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强A</t>
+          <t>富荣福康混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -862,36 +792,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004791</t>
+          <t>001303</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强C</t>
+          <t>银华稳利灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>28.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -900,29 +830,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009769</t>
+          <t>002323</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>28.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1024,7 +961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1051,7 +988,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1081,36 +1018,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005104</t>
+          <t>009768</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富荣福康混合A</t>
+          <t>创金合信汇悦一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.88</t>
+          <t>33.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0215</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1119,36 +1056,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005105</t>
+          <t>004790</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富荣福康混合C</t>
+          <t>富荣中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.88</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1157,36 +1094,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001303</t>
+          <t>004791</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华稳利灵活配置混合A</t>
+          <t>富荣中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28.88</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1195,130 +1132,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002323</t>
+          <t>009769</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华稳利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.12</t>
+          <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28.88</t>
+          <t>33.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159610</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中证500增强策略ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0884</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1332,112 +1168,276 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009454</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009768</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>009481</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>009482</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009455</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009769</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.79</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000050-深天马A.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -534,11 +535,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.02</v>
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -566,6 +583,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -659,7 +808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -867,7 +1016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -961,7 +1110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1162,7 +1311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
